--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2934594364158282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1619644515091259</v>
+        <v>0.161964451509126</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2133274496894735</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1034251766619131</v>
+        <v>0.1064122242812027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2490245730252566</v>
+        <v>0.2441507207716073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2490859021034866</v>
+        <v>0.2476299089692646</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1073280490332711</v>
+        <v>0.1107801774878976</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1781257545448434</v>
+        <v>0.1750305275761262</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2179220012575142</v>
+        <v>0.2134412817148856</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2402073127810984</v>
+        <v>0.2390023247616391</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1305929014998271</v>
+        <v>0.1305259718281177</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1493048376295238</v>
+        <v>0.1494836017456753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2447951320871151</v>
+        <v>0.2413878247871248</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2569521065789828</v>
+        <v>0.2567239216875861</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.135234336421529</v>
+        <v>0.1334396645695554</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1694376711331839</v>
+        <v>0.1677713012760254</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3346106898221408</v>
+        <v>0.330907361676171</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3428782360496215</v>
+        <v>0.3412610712244262</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2354635163205616</v>
+        <v>0.2326753708328452</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2563584157987263</v>
+        <v>0.2544449454604943</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3021035615186127</v>
+        <v>0.2998834383058596</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.328233523330548</v>
+        <v>0.3232268136009847</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2487275248929036</v>
+        <v>0.2409421857496455</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1972723595274909</v>
+        <v>0.1963777595253947</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3043700582503875</v>
+        <v>0.3027777090800498</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3186863389194223</v>
+        <v>0.3221148418101999</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2195573638905322</v>
+        <v>0.2121549057514145</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1439056402851693</v>
+        <v>0.1457395616571631</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2622999919026407</v>
+        <v>0.2642079751097491</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3103053777747007</v>
+        <v>0.3092325279370063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1064158009312761</v>
+        <v>0.1013739656738124</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1759192559903491</v>
+        <v>0.1786587432130436</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2968494971094323</v>
+        <v>0.2990542115792974</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2834703847754575</v>
+        <v>0.2851153869553985</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1402923418614529</v>
+        <v>0.1409279462259559</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1688536948275769</v>
+        <v>0.1707748415850799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.289240027403573</v>
+        <v>0.2892530511738516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3108700823165357</v>
+        <v>0.3076844147955226</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1298700525433666</v>
+        <v>0.1312605388111283</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2049003799113066</v>
+        <v>0.2043822866079547</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3309507382850022</v>
+        <v>0.3361466245395952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3842517519930573</v>
+        <v>0.3882846897945437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1857194772845586</v>
+        <v>0.1836377339253973</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.245192315712717</v>
+        <v>0.246316016099005</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3724851925827625</v>
+        <v>0.3777671703816183</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3634269295201517</v>
+        <v>0.3643767652044438</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2114432697669111</v>
+        <v>0.2111329091760425</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2116560791535372</v>
+        <v>0.2126901587082977</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3417812468150516</v>
+        <v>0.343055561508141</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3656635633006765</v>
+        <v>0.3632216362648471</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1824696995302991</v>
+        <v>0.184437439233157</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.326167091332187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1603148777966419</v>
+        <v>0.1603148777966418</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2557405941322363</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1235997924383893</v>
+        <v>0.1227979175908974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3161293234029829</v>
+        <v>0.3123653890434003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2872457517640987</v>
+        <v>0.2894913269511319</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.131954907641965</v>
+        <v>0.1272637548469986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2210822241021106</v>
+        <v>0.2260403059518659</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3200432820192735</v>
+        <v>0.3172064606710518</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3370555229259052</v>
+        <v>0.3357864148206367</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1282191353339328</v>
+        <v>0.1300865450580996</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1838297537584897</v>
+        <v>0.1812100865222311</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3277225241270008</v>
+        <v>0.3257434693069495</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3235582226752471</v>
+        <v>0.3242073305818413</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1376448093812522</v>
+        <v>0.1368217547803673</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1808388016268198</v>
+        <v>0.1813673208751552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.390925820784453</v>
+        <v>0.3858410041148881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3630691863850419</v>
+        <v>0.3635309011224571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1942101450585472</v>
+        <v>0.1926337000133721</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2898561498425126</v>
+        <v>0.290955523749612</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.393076289197627</v>
+        <v>0.39444869538509</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4103886927373119</v>
+        <v>0.4104367387148945</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1798535760782073</v>
+        <v>0.1790169673620779</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2277964639125568</v>
+        <v>0.226756498882725</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3779267096566915</v>
+        <v>0.3788819267816733</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3740749636632841</v>
+        <v>0.3761743340560413</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1765201103170217</v>
+        <v>0.1791365935079513</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4251496588957967</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1523681288788535</v>
+        <v>0.1523681288788534</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2113560839496044</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1287259393344661</v>
+        <v>0.1280925964918823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2959329149681008</v>
+        <v>0.2974575402923652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3492173846786389</v>
+        <v>0.3503933639418262</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1154950509473086</v>
+        <v>0.1153087050621872</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2231224755698311</v>
+        <v>0.2272840220046992</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2981238024055847</v>
+        <v>0.2946436179680542</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3854525952519363</v>
+        <v>0.3793079059483607</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1322722293767918</v>
+        <v>0.1304730002178662</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1844997992229731</v>
+        <v>0.1867706295070906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.309434437748455</v>
+        <v>0.3070913497870361</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3817439797574594</v>
+        <v>0.3789732161305729</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1299534634957347</v>
+        <v>0.1303770296465785</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1979612238767948</v>
+        <v>0.1910651154535127</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3753335104530646</v>
+        <v>0.3762106096054454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4278549390670074</v>
+        <v>0.427570781427164</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1687853644142593</v>
+        <v>0.1720046919931889</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3012713908673881</v>
+        <v>0.3031457971303877</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3795953640081527</v>
+        <v>0.3811372006271255</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4659051692001437</v>
+        <v>0.4653583786985568</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1767364502927777</v>
+        <v>0.1745395960722285</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2378026639250655</v>
+        <v>0.239279251362162</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3673356159639604</v>
+        <v>0.3649577993905518</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4369360548442888</v>
+        <v>0.4347222211578318</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1629331739250466</v>
+        <v>0.1648939838558395</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1921007561066725</v>
+        <v>0.1904168394072722</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.258700920166525</v>
+        <v>0.2583003133607875</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3096840470644833</v>
+        <v>0.306990459222526</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1505416543418067</v>
+        <v>0.1512118420635188</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2466423634057516</v>
+        <v>0.2447900629999315</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2491780560522049</v>
+        <v>0.2478634054053036</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3353197484776904</v>
+        <v>0.3365562730629275</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1761531556216019</v>
+        <v>0.1791007997522111</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2314103264780366</v>
+        <v>0.2338066254764973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2691999138240712</v>
+        <v>0.2643963303146127</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3347119127407813</v>
+        <v>0.3308123300145667</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.167544171608578</v>
+        <v>0.1720264905193968</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2726150479444733</v>
+        <v>0.2765903007026972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3516281129030199</v>
+        <v>0.347564483566734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4021387047180372</v>
+        <v>0.3969508459529675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2120912253860535</v>
+        <v>0.2154878740990632</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.335064300620556</v>
+        <v>0.3358452984591266</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3405112458798323</v>
+        <v>0.3364125341305549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4311621675201536</v>
+        <v>0.428030387888208</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2290008430094594</v>
+        <v>0.2273027976407336</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2926678057959826</v>
+        <v>0.2923623074898654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3315829812159983</v>
+        <v>0.3310306018505115</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3986450505289819</v>
+        <v>0.3965943428866429</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2088207066608</v>
+        <v>0.2106995088931039</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1888661862006316</v>
+        <v>0.1862094025414645</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1805502498956342</v>
+        <v>0.1787714589700743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2411717558511686</v>
+        <v>0.2434588937303174</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07843178294487174</v>
+        <v>0.07810260418787793</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3573599283664299</v>
+        <v>0.3574711570105062</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2241562280681771</v>
+        <v>0.2255803950930962</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2710526749100918</v>
+        <v>0.2719961463641595</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1019183557446819</v>
+        <v>0.1003524145019883</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2901525317344816</v>
+        <v>0.2926511251369194</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2168145880593752</v>
+        <v>0.2163478428350428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2684491648052554</v>
+        <v>0.2746112579309939</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0968207314399242</v>
+        <v>0.09516366042670041</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2826974431837746</v>
+        <v>0.2841767607392587</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2833265548542496</v>
+        <v>0.27943916543231</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3440098972021478</v>
+        <v>0.3504276623128018</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1300282847460644</v>
+        <v>0.1322694342834955</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4569226170786033</v>
+        <v>0.4520363625320911</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3174611658586455</v>
+        <v>0.3231929671643233</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3652167563216109</v>
+        <v>0.3648407710802659</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1480741804791243</v>
+        <v>0.1475782050590967</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3603536216521294</v>
+        <v>0.3646575334130366</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2865936394393669</v>
+        <v>0.2867330064599905</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.338729995376701</v>
+        <v>0.340800605043817</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1308043292355981</v>
+        <v>0.1280955381370208</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2499754545338166</v>
+        <v>0.2486393236706062</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2119305443720544</v>
+        <v>0.2123948558627247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.23192162514197</v>
+        <v>0.2336978396205038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0625018460971019</v>
+        <v>0.06508939044785025</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3580486527128741</v>
+        <v>0.3561468984296824</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.260585703773786</v>
+        <v>0.2645798119123768</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3045834195793645</v>
+        <v>0.3024961908846503</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1723353268098906</v>
+        <v>0.1697921019116999</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3350882168516956</v>
+        <v>0.3359369930222968</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2643905546422384</v>
+        <v>0.2582824537996907</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2869603466844207</v>
+        <v>0.2917275126845655</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1317637853317861</v>
+        <v>0.1331732523857158</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3842337679642749</v>
+        <v>0.3783975976969527</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3411137193837538</v>
+        <v>0.3360713099890192</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3366034355131831</v>
+        <v>0.3313074254799246</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1150557986104043</v>
+        <v>0.1168055692788739</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4761847842721628</v>
+        <v>0.4742239333934088</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3625455717381659</v>
+        <v>0.3602037824283787</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4198623312938471</v>
+        <v>0.4090642111228929</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2254125229356813</v>
+        <v>0.2248129011825243</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4183712342693308</v>
+        <v>0.4221589684394127</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3381430809290741</v>
+        <v>0.3344972255255259</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3677989515835507</v>
+        <v>0.3683119663022173</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1732276955602654</v>
+        <v>0.1734232808540909</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>50246</v>
+        <v>51697</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>112373</v>
+        <v>110174</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>103092</v>
+        <v>102489</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>41914</v>
+        <v>43262</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>81943</v>
+        <v>80519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>93554</v>
+        <v>91630</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>94395</v>
+        <v>93922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>46957</v>
+        <v>46933</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>141220</v>
+        <v>141389</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>215555</v>
+        <v>212555</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>207323</v>
+        <v>207139</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>101438</v>
+        <v>100091</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>82316</v>
+        <v>81507</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>150994</v>
+        <v>149323</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>141911</v>
+        <v>141241</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>91953</v>
+        <v>90864</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>117932</v>
+        <v>117052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>129693</v>
+        <v>128740</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>128988</v>
+        <v>127020</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>89434</v>
+        <v>86635</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>186590</v>
+        <v>185744</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>268014</v>
+        <v>266612</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>257134</v>
+        <v>259900</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>164687</v>
+        <v>159135</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>105290</v>
+        <v>106632</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179726</v>
+        <v>181033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>183234</v>
+        <v>182601</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50485</v>
+        <v>48093</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>107976</v>
+        <v>109657</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>181154</v>
+        <v>182499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>159184</v>
+        <v>160108</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>68936</v>
+        <v>69248</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>227183</v>
+        <v>229768</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>374696</v>
+        <v>374713</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>358139</v>
+        <v>354468</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>125426</v>
+        <v>126769</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>149918</v>
+        <v>149539</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>226765</v>
+        <v>230325</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>226899</v>
+        <v>229281</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88107</v>
+        <v>87120</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>150494</v>
+        <v>151184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>227311</v>
+        <v>230534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>204084</v>
+        <v>204618</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>103898</v>
+        <v>103745</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>284771</v>
+        <v>286162</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>442760</v>
+        <v>444411</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>421263</v>
+        <v>418450</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>176226</v>
+        <v>178127</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78502</v>
+        <v>77993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>214615</v>
+        <v>212059</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>191347</v>
+        <v>192843</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>81200</v>
+        <v>78313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>149833</v>
+        <v>153194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>226280</v>
+        <v>224274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>221746</v>
+        <v>220912</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>79556</v>
+        <v>80715</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>241343</v>
+        <v>237904</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>454194</v>
+        <v>451451</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>428403</v>
+        <v>429263</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>170105</v>
+        <v>169088</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114857</v>
+        <v>115193</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>265393</v>
+        <v>261941</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>241856</v>
+        <v>242164</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119509</v>
+        <v>118539</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>196443</v>
+        <v>197188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>277916</v>
+        <v>278887</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>269992</v>
+        <v>270023</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>111594</v>
+        <v>111075</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>299065</v>
+        <v>297700</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>523772</v>
+        <v>525096</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>495289</v>
+        <v>498069</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>218148</v>
+        <v>221382</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66456</v>
+        <v>66129</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>181885</v>
+        <v>182822</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>224227</v>
+        <v>224982</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>79807</v>
+        <v>79678</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>112771</v>
+        <v>114874</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>183018</v>
+        <v>180881</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>249770</v>
+        <v>245788</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>96960</v>
+        <v>95642</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>188499</v>
+        <v>190819</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>380145</v>
+        <v>377267</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>492479</v>
+        <v>488904</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>185058</v>
+        <v>185661</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102199</v>
+        <v>98639</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>230686</v>
+        <v>231225</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>274719</v>
+        <v>274536</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>116630</v>
+        <v>118855</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>152269</v>
+        <v>153216</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>233033</v>
+        <v>233980</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>301903</v>
+        <v>301549</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>129554</v>
+        <v>127944</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>242958</v>
+        <v>244466</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>451278</v>
+        <v>448356</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>563681</v>
+        <v>560825</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>232023</v>
+        <v>234815</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>72259</v>
+        <v>71625</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>109913</v>
+        <v>109743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>147020</v>
+        <v>145742</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>90080</v>
+        <v>90481</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>97893</v>
+        <v>97158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>110241</v>
+        <v>109659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>165833</v>
+        <v>166445</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>106098</v>
+        <v>107873</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>178892</v>
+        <v>180745</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>233473</v>
+        <v>229307</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>324435</v>
+        <v>320655</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>201166</v>
+        <v>206548</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>102544</v>
+        <v>104039</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>149395</v>
+        <v>147669</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>190913</v>
+        <v>188450</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>126909</v>
+        <v>128942</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>132988</v>
+        <v>133298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>150648</v>
+        <v>148835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>213233</v>
+        <v>211684</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>137928</v>
+        <v>136905</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>226248</v>
+        <v>226012</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>287577</v>
+        <v>287098</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>386405</v>
+        <v>384417</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>250726</v>
+        <v>252982</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>53404</v>
+        <v>52653</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>55166</v>
+        <v>54623</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>78494</v>
+        <v>79239</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>31666</v>
+        <v>31533</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>118681</v>
+        <v>118718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>79129</v>
+        <v>79631</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>101408</v>
+        <v>101761</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44295</v>
+        <v>43614</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>178406</v>
+        <v>179942</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>142784</v>
+        <v>142476</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>187807</v>
+        <v>192118</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>81170</v>
+        <v>79781</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>79936</v>
+        <v>80354</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>86569</v>
+        <v>85381</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>111965</v>
+        <v>114054</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>52498</v>
+        <v>53403</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>151747</v>
+        <v>150124</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>112066</v>
+        <v>114089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>136638</v>
+        <v>136497</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>64355</v>
+        <v>64139</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>221570</v>
+        <v>224216</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>188737</v>
+        <v>188829</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>236975</v>
+        <v>238424</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>109661</v>
+        <v>107390</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50756</v>
+        <v>50484</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>52726</v>
+        <v>52842</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>59015</v>
+        <v>59467</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>19243</v>
+        <v>20040</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>117800</v>
+        <v>117174</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>100798</v>
+        <v>102343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>121132</v>
+        <v>120302</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>78594</v>
+        <v>77434</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>178283</v>
+        <v>178735</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>168047</v>
+        <v>164165</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>187144</v>
+        <v>190253</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>100659</v>
+        <v>101736</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>78016</v>
+        <v>76831</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>84865</v>
+        <v>83611</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>85653</v>
+        <v>84305</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>35424</v>
+        <v>35963</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>156667</v>
+        <v>156022</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>140238</v>
+        <v>139332</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>166978</v>
+        <v>162683</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>102800</v>
+        <v>102526</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>222594</v>
+        <v>224609</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>214925</v>
+        <v>212607</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>239863</v>
+        <v>240198</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>132335</v>
+        <v>132484</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
     </row>
     <row r="36">
